--- a/documentation/api/Описание API.xlsx
+++ b/documentation/api/Описание API.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Список мероприятий" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>Флаг мероприятия только для сотрудников</t>
   </si>
   <si>
-    <t>/REST/events/id - где id - идентификатор мероприятия</t>
-  </si>
-  <si>
     <t>address : string</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Определяется расширением</t>
+  </si>
+  <si>
+    <t>/REST/event/id - где id - идентификатор мероприятия</t>
   </si>
 </sst>
 </file>
@@ -373,20 +373,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Контрольная ячейка" xfId="1" builtinId="23"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -402,9 +402,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -442,9 +442,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,7 +479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,7 +514,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -693,25 +693,25 @@
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -727,7 +727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -735,7 +735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -743,13 +743,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -757,7 +757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
@@ -765,15 +765,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -797,41 +797,41 @@
   </sheetPr>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
     <col min="2" max="2" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,21 +839,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -861,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -869,23 +869,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -893,92 +893,92 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1000,37 +1000,37 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.44140625" customWidth="1"/>
+    <col min="2" max="2" width="63.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1038,21 +1038,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1060,100 +1060,100 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1175,37 +1175,37 @@
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="62.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1213,20 +1213,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1245,37 +1245,37 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="67.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1283,20 +1283,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
